--- a/pred_ohlcv/54_21/2019-11-02 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>9349097.119300216</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>9224506.790200217</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>9045082.263020758</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>9672977.843520757</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>9623626.520620758</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>9817950.011720758</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>9805918.843530519</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>9680187.907330519</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>9617567.200330518</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7265065.745162941</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2528962.41356294</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4798183.476347639</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-8806025.741924118</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-8903784.213724118</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4391615.617024119</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4379556.805124119</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4481647.543824119</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1360405.717824119</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1360405.717824119</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1459063.598324119</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1502485.431475882</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>4219882.417075882</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1724078.649275882</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2685436.606441057</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-23299847.22775896</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-23301589.93105896</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-23371068.53005896</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-23356684.32065896</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-23409509.20655896</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-23176511.46205896</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-37846244.95242684</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-34117686.18044867</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-33909751.73994868</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-33917199.30754867</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-33936567.47914868</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-33936567.47914868</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-33937567.58074868</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-33937597.58074868</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-33944420.42264868</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-33956477.70414867</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-33977332.23264868</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-33964998.14904868</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-33977718.37284868</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-33992110.84584868</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-34060600.90294868</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-33979431.24161617</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-33961853.54151617</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-33966822.03871617</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-33979996.03861617</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-34020159.02161616</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-33961981.66986127</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-33965449.32656127</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-33976528.22246128</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-33975863.32246128</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-34059159.94706128</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-34053967.82016128</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-34053867.79006127</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-34108219.73414153</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-34108117.38344153</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-34158455.99454153</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-34158455.99454153</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-34161681.38274153</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-34364347.70824154</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-34368118.74044154</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-34353718.74044154</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-34311456.52474154</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-34273490.12214154</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-34274028.12224154</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-34296044.76254154</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-34280271.76254154</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-34280271.76254154</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-34220339.83974154</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-34166217.93639582</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-34169915.26288913</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-34169905.26288913</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-34171599.56318913</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-34171589.56318913</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-34181907.22818913</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-34178171.23815178</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-34180514.26865178</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-34173962.78235178</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-34173962.78235178</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-34198740.40835179</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-34190513.16495179</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-34200606.23585179</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-34187470.19255178</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-34187470.19255178</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-34190427.86175179</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-34176020.84554917</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-34192862.31764916</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-34139934.04064916</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-34137191.04064916</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-34137191.04064916</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-34144393.31414916</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-34154393.31414916</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-34219587.76784916</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-34199329.14684916</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-34219329.14684916</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-34219070.52584916</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-34218494.30174916</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-34218752.92274916</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-34221453.54614916</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-34220110.49854916</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-34168136.85384917</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-34168136.85384917</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-34171776.72894917</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-34171776.72894917</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-34212831.10076132</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-34211961.10076132</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-34716770.18596131</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-34718477.90626131</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-34678548.71256131</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-34678548.71256131</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-34678495.57226131</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-34689488.82356131</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-34569279.54586131</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-34580492.51956131</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-34561412.37012171</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-34567354.15542171</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-34554821.15542171</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-34554821.15542171</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-34589692.43302171</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-34589692.43302171</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-34557498.77582171</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-34522296.68052171</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-34501968.63082171</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-34489268.63082171</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-34501600.77462171</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-34533017.44312171</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-34533017.44312171</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-34495237.90962171</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-34483926.92426619</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-34483909.06716619</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-34483890.19323719</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-34504314.91763718</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-34502956.66823719</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-34502956.66823719</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-34348341.43653719</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-34343163.56513719</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-34323163.56513719</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-34355017.9658372</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-31401423.24193719</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-34076709.4042372</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-34076709.4042372</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-34073313.7908372</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-34073303.7908372</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-35473303.7908372</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-35469629.5008372</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>9349097.119300216</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>9224506.790200217</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>9045082.263020758</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>9346704.419720758</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>9346704.419720758</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>9672977.843520757</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>9817950.011720758</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>9607759.882220758</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>9607759.882220758</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>9645268.431330519</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>9560097.196507268</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>9756863.006358799</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>9676391.788758799</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>9540562.268358799</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7265065.745162941</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2528962.41356294</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2528962.41356294</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4798183.476347639</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-8806025.741924118</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-8903784.213724118</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4391615.617024119</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4379556.805124119</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4481647.543824119</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1360405.717824119</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1360405.717824119</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1459063.598324119</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1502485.431475882</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>4219882.417075882</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1724078.649275882</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2685436.606441057</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-23299847.22775896</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-23301589.93105896</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-23371068.53005896</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-23356684.32065896</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-23409509.20655896</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-23176511.46205896</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-37846244.95242684</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-34117686.18044867</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-33909751.73994868</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-33917199.30754867</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-33936567.47914868</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-33936567.47914868</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-33937567.58074868</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-33937597.58074868</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-33944420.42264868</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-33956477.70414867</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-33977332.23264868</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-33964998.14904868</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-33977718.37284868</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-33992110.84584868</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-34091122.65844868</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-34067493.40744868</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-34068883.96554868</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-34063883.96554868</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-34063883.96554868</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-34058883.96554868</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-34058883.96554868</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-34060600.90294868</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-33979431.24161617</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-33961853.54151617</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-33966822.03871617</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-33979996.03861617</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-34037704.01871616</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-34035090.52181616</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-34020159.02161616</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-33969044.20646127</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-33970644.20646127</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-33972882.93606127</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-33961981.66986127</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-33975863.32246128</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-34059159.94706128</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-34053967.82016128</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-34053867.79006127</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-34068036.34884153</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-34072075.28164153</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-34056877.38424153</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-34048273.75184153</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-34048379.75184153</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-34048379.75184153</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-34057157.75184153</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-34057157.75184153</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-34108219.73414153</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-34108117.38344153</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-34158455.99454153</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-34158455.99454153</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-34156329.88724153</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-34161681.38274153</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-34136800.22024153</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-34364347.70824154</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-34363301.41854154</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-34363301.41854154</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-34368118.74044154</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-34368118.74044154</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-34353718.74044154</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-34309040.22224154</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-34311456.52474154</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-34311456.52474154</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-34273490.12214154</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-34274028.12224154</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-34296044.76254154</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-34280271.76254154</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-34280271.76254154</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-34220339.83974154</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-34166217.93639582</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-34166697.93639582</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-34155670.38198914</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-34168540.74488913</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-34169915.26288913</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-34169905.26288913</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-34171599.56318913</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-34171589.56318913</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-34181907.22818913</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-34178171.23815178</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-34180514.26865178</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-34173962.78235178</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-34173962.78235178</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-34198740.40835179</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-34190513.16495179</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-34200606.23585179</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-34187470.19255178</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-34187470.19255178</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-34190427.86175179</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-34176020.84554917</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-34192862.31764916</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-34139934.04064916</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-34137191.04064916</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-34137191.04064916</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-34144393.31414916</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-34144393.31414916</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-34154393.31414916</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-34219587.76784916</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-34199329.14684916</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-34219329.14684916</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-34219070.52584916</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-34218494.30174916</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-34218752.92274916</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-34221453.54614916</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-34220110.49854916</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-34168136.85384917</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-34168136.85384917</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-34171776.72894917</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-34171776.72894917</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-34212831.10076132</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-34211961.10076132</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-34716770.18596131</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-34718477.90626131</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-34678548.71256131</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-34678548.71256131</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-34678495.57226131</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-34689488.82356131</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-34569279.54586131</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-34580492.51956131</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-34561412.37012171</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-34567354.15542171</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-34554821.15542171</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-34554821.15542171</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-34589692.43302171</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-34589692.43302171</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-34557498.77582171</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-34522296.68052171</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-34501968.63082171</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-34489268.63082171</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-34489268.63082171</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-34489258.63082171</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-34489258.63082171</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-34489271.53732171</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-34474626.53732171</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-34487527.43782171</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-34501600.77462171</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-34501600.77462171</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-34533017.44312171</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-34533017.44312171</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-34495237.90962171</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-34555274.70492171</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-34558905.32582171</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-34489518.54846618</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-34483926.92426619</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-34483909.06716619</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-34483909.06716619</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-34483890.19323719</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-34504314.91763718</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-34502956.66823719</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-34502956.66823719</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-34357341.77793719</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-34357341.77793719</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-34348341.43653719</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-34348341.43653719</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-34347491.05713719</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-34333218.05833719</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-34343163.56513719</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-34323163.56513719</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-34355017.9658372</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-31401423.24193719</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-34076709.4042372</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-34076709.4042372</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-34073313.7908372</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-34073303.7908372</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-35473303.7908372</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-35469629.5008372</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-38279614.43423762</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
